--- a/data/trans_dic/IP16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,99; 65,8</t>
+          <t>28,19; 63,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,56; 56,19</t>
+          <t>22,89; 56,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,56; 66,08</t>
+          <t>20,28; 66,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,81; 69,47</t>
+          <t>25,47; 70,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,08; 52,8</t>
+          <t>19,29; 50,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,79; 54,52</t>
+          <t>23,59; 54,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,86; 55,51</t>
+          <t>17,55; 54,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,69; 58,99</t>
+          <t>10,88; 59,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,59; 52,83</t>
+          <t>28,1; 52,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 49,6</t>
+          <t>28,03; 50,66</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>25,67; 53,97</t>
+          <t>24,58; 53,48</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,09; 57,63</t>
+          <t>24,71; 59,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,29; 45,24</t>
+          <t>28,33; 44,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,97; 48,75</t>
+          <t>34,96; 49,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,2; 42,1</t>
+          <t>26,77; 41,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,35; 48,81</t>
+          <t>32,15; 49,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>24,67; 41,63</t>
+          <t>25,16; 42,16</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>37,23; 52,01</t>
+          <t>36,97; 52,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,37; 45,54</t>
+          <t>31,11; 46,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>33,8; 55,41</t>
+          <t>34,03; 55,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,97; 40,23</t>
+          <t>29,31; 40,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,96; 48,28</t>
+          <t>37,74; 48,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,66; 41,85</t>
+          <t>30,19; 40,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,06; 49,3</t>
+          <t>36,72; 50,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>33,62; 61,52</t>
+          <t>34,25; 61,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,86; 44,18</t>
+          <t>20,7; 45,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,42; 56,0</t>
+          <t>30,31; 56,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,89; 64,97</t>
+          <t>37,75; 65,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,74; 48,62</t>
+          <t>19,05; 52,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,47; 49,75</t>
+          <t>26,02; 49,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,15; 57,52</t>
+          <t>31,07; 56,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,98; 63,32</t>
+          <t>37,26; 62,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>33,51; 54,18</t>
+          <t>32,15; 53,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 42,7</t>
+          <t>26,96; 43,23</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,6; 51,99</t>
+          <t>33,87; 52,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>40,82; 60,7</t>
+          <t>42,07; 60,13</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,64; 47,65</t>
+          <t>34,55; 48,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,8; 44,44</t>
+          <t>33,0; 44,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,09; 43,87</t>
+          <t>30,44; 43,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,17; 51,77</t>
+          <t>37,44; 50,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>26,97; 40,1</t>
+          <t>26,1; 40,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,19; 48,06</t>
+          <t>36,11; 48,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,41; 44,75</t>
+          <t>33,05; 45,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>37,88; 54,12</t>
+          <t>37,46; 53,25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32,47; 42,48</t>
+          <t>32,85; 42,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>36,23; 44,85</t>
+          <t>36,15; 44,44</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,41; 42,33</t>
+          <t>33,32; 42,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>39,81; 49,96</t>
+          <t>39,53; 50,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,34%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,52%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>40,14%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,17%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>19,07; 51,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,93; 54,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,36; 54,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 54,42</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,23; 64,62</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,1; 56,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,6; 67,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,68; 65,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>29,13; 53,3</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,24; 50,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,75; 55,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,04; 52,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>46,1%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,39%</t>
+          <t>44,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>37,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>34,67%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,34%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>33,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,03%</t>
+          <t>40,44%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>40,14%</t>
+          <t>34,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,36%</t>
+          <t>43,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>40,85%</t>
+          <t>39,61%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 63,63</t>
+          <t>25,84; 42,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,89; 56,36</t>
+          <t>37,27; 52,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,28; 66,34</t>
+          <t>30,82; 45,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>25,47; 70,73</t>
+          <t>18,67; 52,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,29; 50,95</t>
+          <t>28,84; 45,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>23,59; 54,25</t>
+          <t>35,14; 49,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,55; 54,43</t>
+          <t>26,42; 41,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 59,28</t>
+          <t>32,9; 48,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>28,1; 52,08</t>
+          <t>29,21; 40,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,03; 50,66</t>
+          <t>38,41; 48,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,58; 53,48</t>
+          <t>30,75; 41,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,71; 59,96</t>
+          <t>26,43; 46,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,46%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>41,96%</t>
+          <t>37,36%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>43,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,68%</t>
+          <t>49,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,65%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,55%</t>
+          <t>31,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>37,46%</t>
+          <t>42,49%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>46,24%</t>
+          <t>52,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>34,64%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>43,21%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>35,62%</t>
+          <t>43,06%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>43,29%</t>
+          <t>51,43%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,33; 44,82</t>
+          <t>18,23; 48,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,96; 49,42</t>
+          <t>27,39; 51,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,77; 41,98</t>
+          <t>31,64; 56,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>32,15; 49,01</t>
+          <t>37,2; 61,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,16; 42,16</t>
+          <t>35,9; 64,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>36,97; 52,4</t>
+          <t>21,14; 46,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,11; 46,05</t>
+          <t>30,05; 56,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>34,03; 55,66</t>
+          <t>38,61; 66,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,31; 40,65</t>
+          <t>32,82; 53,54</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>37,74; 48,31</t>
+          <t>25,47; 42,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30,19; 40,78</t>
+          <t>33,81; 52,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>36,72; 50,02</t>
+          <t>41,38; 60,28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>49,09%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,24%</t>
+          <t>41,95%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>42,49%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>40,24%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,37%</t>
+          <t>40,94%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>37,36%</t>
+          <t>39,02%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>43,63%</t>
+          <t>36,74%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>42,57%</t>
+          <t>37,21%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>34,32%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>43,06%</t>
+          <t>37,77%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,11%</t>
+          <t>42,12%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,25; 61,79</t>
+          <t>26,2; 40,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>20,7; 45,46</t>
+          <t>35,18; 47,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 56,01</t>
+          <t>33,13; 45,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,75; 65,33</t>
+          <t>24,21; 50,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,05; 52,3</t>
+          <t>34,74; 48,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,02; 49,73</t>
+          <t>33,35; 45,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,07; 56,89</t>
+          <t>30,62; 44,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,26; 62,16</t>
+          <t>37,44; 50,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>32,15; 53,71</t>
+          <t>32,44; 41,49</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>26,96; 43,23</t>
+          <t>36,21; 44,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,87; 52,91</t>
+          <t>33,52; 42,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>42,07; 60,13</t>
+          <t>33,13; 48,3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>41,23%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>39,02%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>36,74%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>44,08%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>32,96%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>41,95%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>38,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>46,3%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>37,38%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>40,47%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>37,77%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>45,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>34,55; 48,08</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>33,0; 44,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>30,44; 43,65</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>37,44; 50,6</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>26,1; 40,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36,11; 48,13</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>33,05; 45,32</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>37,46; 53,25</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>32,85; 42,4</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>36,15; 44,44</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>33,32; 42,19</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>39,53; 50,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
